--- a/data/trans_orig/P04C04_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D416B3DA-3D21-4EBB-88BA-7D5661E845B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{614D7461-007D-444A-8888-94436FA5DB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7F2A33F-0D1E-45B3-BA60-A42EC881D552}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1B1B992-455E-4791-B916-6662CA586EC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2B5C8D-F0F2-416A-A1C0-FA40B2814DFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AAB5EE-4E37-4D01-B212-B45115EDC556}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P04C04_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{614D7461-007D-444A-8888-94436FA5DB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{410CE360-2F09-47CA-9CF0-022A3B9C6FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1B1B992-455E-4791-B916-6662CA586EC1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05BCB5BC-8BEA-42E1-BBC9-1CFA9783E732}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="198">
-  <si>
-    <t>Hogares con refrigeración por aires acondicionado mediante aparatos móviles (NO ventiladores) en 2023 (Tasa respuesta: 99,71%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="196">
+  <si>
+    <t>Población con refrigeración por aire acondicionado mediante aparatos móviles (NO ventiladores) en la vivienda en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>79,66%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
   </si>
   <si>
     <t>86,13%</t>
   </si>
   <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>82,8%</t>
   </si>
   <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
@@ -107,25 +107,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,25%</t>
+    <t>3,87%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
   </si>
   <si>
     <t>1,69%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>Si, funciona correctamente</t>
@@ -134,28 +134,28 @@
     <t>19,43%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,25 +167,25 @@
     <t>88,21%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>84,91%</t>
   </si>
   <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
   </si>
   <si>
     <t>86,44%</t>
   </si>
   <si>
-    <t>81,62%</t>
+    <t>81,33%</t>
   </si>
   <si>
     <t>89,32%</t>
@@ -194,10 +194,10 @@
     <t>2,06%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -206,40 +206,43 @@
     <t>0,2%</t>
   </si>
   <si>
+    <t>1,85%</t>
+  </si>
+  <si>
     <t>1,31%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>9,74%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
   </si>
   <si>
     <t>14,43%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -248,7 +251,7 @@
     <t>86,36%</t>
   </si>
   <si>
-    <t>83,17%</t>
+    <t>83,11%</t>
   </si>
   <si>
     <t>89,23%</t>
@@ -257,376 +260,367 @@
     <t>81,93%</t>
   </si>
   <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
+    <t>66,65%</t>
   </si>
   <si>
     <t>84,04%</t>
   </si>
   <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
   </si>
   <si>
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>12,09%</t>
   </si>
   <si>
-    <t>9,45%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>15,04%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
+    <t>12,61%</t>
   </si>
   <si>
     <t>14,58%</t>
   </si>
   <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1041,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AAB5EE-4E37-4D01-B212-B45115EDC556}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B22451-8406-42DA-A81A-BCC2CD5BF511}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1443,7 +1437,7 @@
         <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -1452,13 +1446,13 @@
         <v>12086</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1473,13 +1467,13 @@
         <v>41707</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>59</v>
@@ -1488,13 +1482,13 @@
         <v>71592</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -1503,13 +1497,13 @@
         <v>113299</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,7 +1559,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1577,13 +1571,13 @@
         <v>480200</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>712</v>
@@ -1592,13 +1586,13 @@
         <v>499347</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="M12" s="7">
         <v>1180</v>
@@ -1631,10 +1625,10 @@
         <v>78</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -1643,13 +1637,13 @@
         <v>9065</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -1658,13 +1652,13 @@
         <v>17706</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,13 +1673,13 @@
         <v>67202</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>122</v>
@@ -1694,13 +1688,13 @@
         <v>101097</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>191</v>
@@ -1709,10 +1703,10 @@
         <v>168299</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>94</v>
@@ -1837,10 +1831,10 @@
         <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -1849,13 +1843,13 @@
         <v>10433</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -1864,13 +1858,13 @@
         <v>22592</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,13 +1879,13 @@
         <v>151244</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>174</v>
@@ -1900,13 +1894,13 @@
         <v>104385</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>276</v>
@@ -1915,13 +1909,13 @@
         <v>255629</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1977,7 +1971,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1989,13 +1983,13 @@
         <v>519226</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>827</v>
@@ -2004,13 +1998,13 @@
         <v>501298</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>1395</v>
@@ -2019,13 +2013,13 @@
         <v>1020524</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2040,13 +2034,13 @@
         <v>4545</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2055,13 +2049,13 @@
         <v>1559</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
@@ -2070,13 +2064,13 @@
         <v>6104</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2085,13 @@
         <v>74260</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
@@ -2106,13 +2100,13 @@
         <v>91013</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>255</v>
@@ -2121,13 +2115,13 @@
         <v>165272</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2183,7 +2177,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2195,13 +2189,13 @@
         <v>589959</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>1421</v>
@@ -2210,13 +2204,13 @@
         <v>881974</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>2290</v>
@@ -2225,13 +2219,13 @@
         <v>1471933</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2240,13 @@
         <v>5609</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -2261,13 +2255,13 @@
         <v>8242</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -2276,10 +2270,10 @@
         <v>13851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>163</v>
@@ -2428,16 +2422,16 @@
         <v>7343</v>
       </c>
       <c r="N28" s="7">
-        <v>6066980</v>
+        <v>6066981</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2446,13 @@
         <v>43207</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -2470,10 +2464,10 @@
         <v>184</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>96</v>
@@ -2482,13 +2476,13 @@
         <v>84753</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2497,13 @@
         <v>507888</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>89</v>
+        <v>187</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H30" s="7">
         <v>814</v>
@@ -2518,13 +2512,13 @@
         <v>542288</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>117</v>
       </c>
       <c r="M30" s="7">
         <v>1279</v>
@@ -2533,13 +2527,13 @@
         <v>1050176</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,7 +2575,7 @@
         <v>8718</v>
       </c>
       <c r="N31" s="7">
-        <v>7201909</v>
+        <v>7201910</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -2595,7 +2589,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04C04_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{410CE360-2F09-47CA-9CF0-022A3B9C6FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EBE2A8E-A7E3-4807-AC68-AE9B82AC5978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05BCB5BC-8BEA-42E1-BBC9-1CFA9783E732}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F54906EF-D063-497C-885B-0EBA94492341}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="226">
   <si>
     <t>Población con refrigeración por aire acondicionado mediante aparatos móviles (NO ventiladores) en la vivienda en 2023 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -65,49 +65,49 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
   </si>
   <si>
     <t>Si, pero no funciona correctamente</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,87%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>2,53%</t>
@@ -116,511 +116,601 @@
     <t>0,8%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>Si, funciona correctamente</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
   </si>
   <si>
     <t>15,1%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1035,8 +1125,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B22451-8406-42DA-A81A-BCC2CD5BF511}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1014A985-5E41-420A-8466-6D423BBF1927}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1156,7 +1246,7 @@
         <v>141</v>
       </c>
       <c r="D4" s="7">
-        <v>300727</v>
+        <v>317374</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1171,7 +1261,7 @@
         <v>180</v>
       </c>
       <c r="I4" s="7">
-        <v>305740</v>
+        <v>270384</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1186,7 +1276,7 @@
         <v>321</v>
       </c>
       <c r="N4" s="7">
-        <v>606468</v>
+        <v>587759</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1207,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>3440</v>
+        <v>3871</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1222,7 +1312,7 @@
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>8973</v>
+        <v>7929</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1237,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>12414</v>
+        <v>11801</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1258,7 +1348,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>73351</v>
+        <v>78576</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1273,7 +1363,7 @@
         <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>40243</v>
+        <v>34886</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1288,7 +1378,7 @@
         <v>52</v>
       </c>
       <c r="N6" s="7">
-        <v>113595</v>
+        <v>113463</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1309,7 +1399,7 @@
         <v>171</v>
       </c>
       <c r="D7" s="7">
-        <v>377519</v>
+        <v>399822</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1324,7 +1414,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1339,7 +1429,7 @@
         <v>378</v>
       </c>
       <c r="N7" s="7">
-        <v>732476</v>
+        <v>713022</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1362,7 +1452,7 @@
         <v>266</v>
       </c>
       <c r="D8" s="7">
-        <v>377877</v>
+        <v>372579</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1377,7 +1467,7 @@
         <v>396</v>
       </c>
       <c r="I8" s="7">
-        <v>421389</v>
+        <v>386487</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1392,7 +1482,7 @@
         <v>662</v>
       </c>
       <c r="N8" s="7">
-        <v>799266</v>
+        <v>759067</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1413,7 +1503,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>8812</v>
+        <v>8501</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1428,7 +1518,7 @@
         <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>3274</v>
+        <v>2793</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1443,7 +1533,7 @@
         <v>11</v>
       </c>
       <c r="N9" s="7">
-        <v>12086</v>
+        <v>11294</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -1464,7 +1554,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>41707</v>
+        <v>42466</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -1479,7 +1569,7 @@
         <v>59</v>
       </c>
       <c r="I10" s="7">
-        <v>71592</v>
+        <v>120030</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -1494,7 +1584,7 @@
         <v>88</v>
       </c>
       <c r="N10" s="7">
-        <v>113299</v>
+        <v>162496</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -1515,7 +1605,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1530,7 +1620,7 @@
         <v>459</v>
       </c>
       <c r="I11" s="7">
-        <v>496255</v>
+        <v>509310</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1545,7 +1635,7 @@
         <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>924651</v>
+        <v>932857</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1568,7 +1658,7 @@
         <v>468</v>
       </c>
       <c r="D12" s="7">
-        <v>480200</v>
+        <v>461599</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -1583,7 +1673,7 @@
         <v>712</v>
       </c>
       <c r="I12" s="7">
-        <v>499347</v>
+        <v>464176</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -1592,22 +1682,22 @@
         <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>1180</v>
       </c>
       <c r="N12" s="7">
-        <v>979546</v>
+        <v>925776</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,46 +1709,46 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>8641</v>
+        <v>8657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>9065</v>
+        <v>8377</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>17706</v>
+        <v>17034</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,46 +1760,46 @@
         <v>69</v>
       </c>
       <c r="D14" s="7">
-        <v>67202</v>
+        <v>64897</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>122</v>
       </c>
       <c r="I14" s="7">
-        <v>101097</v>
+        <v>118558</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M14" s="7">
         <v>191</v>
       </c>
       <c r="N14" s="7">
-        <v>168299</v>
+        <v>183455</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,7 +1811,7 @@
         <v>544</v>
       </c>
       <c r="D15" s="7">
-        <v>556043</v>
+        <v>535154</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1736,7 +1826,7 @@
         <v>846</v>
       </c>
       <c r="I15" s="7">
-        <v>609509</v>
+        <v>591111</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1751,7 +1841,7 @@
         <v>1390</v>
       </c>
       <c r="N15" s="7">
-        <v>1165552</v>
+        <v>1126265</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1765,7 +1855,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1774,46 +1864,46 @@
         <v>548</v>
       </c>
       <c r="D16" s="7">
-        <v>558174</v>
+        <v>530352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>947</v>
       </c>
       <c r="I16" s="7">
-        <v>631070</v>
+        <v>605558</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>1495</v>
       </c>
       <c r="N16" s="7">
-        <v>1189243</v>
+        <v>1135910</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1825,46 +1915,46 @@
         <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>12160</v>
+        <v>11710</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
       </c>
       <c r="I17" s="7">
-        <v>10433</v>
+        <v>9658</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
       </c>
       <c r="N17" s="7">
-        <v>22592</v>
+        <v>21368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,46 +1966,46 @@
         <v>102</v>
       </c>
       <c r="D18" s="7">
-        <v>151244</v>
+        <v>343412</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>174</v>
       </c>
       <c r="I18" s="7">
-        <v>104385</v>
+        <v>96365</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>276</v>
       </c>
       <c r="N18" s="7">
-        <v>255629</v>
+        <v>439776</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,7 +2017,7 @@
         <v>663</v>
       </c>
       <c r="D19" s="7">
-        <v>721577</v>
+        <v>885474</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1942,7 +2032,7 @@
         <v>1139</v>
       </c>
       <c r="I19" s="7">
-        <v>745888</v>
+        <v>711581</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1957,7 +2047,7 @@
         <v>1802</v>
       </c>
       <c r="N19" s="7">
-        <v>1467464</v>
+        <v>1597055</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1971,7 +2061,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1980,46 +2070,46 @@
         <v>568</v>
       </c>
       <c r="D20" s="7">
-        <v>519226</v>
+        <v>485637</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>827</v>
       </c>
       <c r="I20" s="7">
-        <v>501298</v>
+        <v>459706</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>1395</v>
       </c>
       <c r="N20" s="7">
-        <v>1020524</v>
+        <v>945343</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,46 +2121,46 @@
         <v>5</v>
       </c>
       <c r="D21" s="7">
-        <v>4545</v>
+        <v>4382</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
       </c>
       <c r="I21" s="7">
-        <v>1559</v>
+        <v>1384</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>8</v>
       </c>
       <c r="N21" s="7">
-        <v>6104</v>
+        <v>5766</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,46 +2172,46 @@
         <v>88</v>
       </c>
       <c r="D22" s="7">
-        <v>74260</v>
+        <v>69274</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H22" s="7">
         <v>167</v>
       </c>
       <c r="I22" s="7">
-        <v>91013</v>
+        <v>83940</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M22" s="7">
         <v>255</v>
       </c>
       <c r="N22" s="7">
-        <v>165272</v>
+        <v>153214</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2133,7 +2223,7 @@
         <v>661</v>
       </c>
       <c r="D23" s="7">
-        <v>598031</v>
+        <v>559293</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2148,7 +2238,7 @@
         <v>997</v>
       </c>
       <c r="I23" s="7">
-        <v>593869</v>
+        <v>545031</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2163,7 +2253,7 @@
         <v>1658</v>
       </c>
       <c r="N23" s="7">
-        <v>1191900</v>
+        <v>1104323</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2177,55 +2267,55 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>869</v>
+        <v>482</v>
       </c>
       <c r="D24" s="7">
-        <v>589959</v>
+        <v>312344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H24" s="7">
-        <v>1421</v>
+        <v>690</v>
       </c>
       <c r="I24" s="7">
-        <v>881974</v>
+        <v>545892</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
-        <v>2290</v>
+        <v>1172</v>
       </c>
       <c r="N24" s="7">
-        <v>1471933</v>
+        <v>858237</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2234,49 +2324,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2501</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="7">
         <v>8</v>
       </c>
-      <c r="D25" s="7">
-        <v>5609</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H25" s="7">
-        <v>14</v>
-      </c>
       <c r="I25" s="7">
-        <v>8242</v>
+        <v>4242</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>13851</v>
+        <v>6742</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,49 +2375,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="D26" s="7">
-        <v>100124</v>
+        <v>52680</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
-        <v>269</v>
+        <v>128</v>
       </c>
       <c r="I26" s="7">
-        <v>133958</v>
+        <v>57693</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
-        <v>417</v>
+        <v>211</v>
       </c>
       <c r="N26" s="7">
-        <v>234082</v>
+        <v>110373</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2336,10 +2426,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1025</v>
+        <v>569</v>
       </c>
       <c r="D27" s="7">
-        <v>695692</v>
+        <v>367525</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2351,10 +2441,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1704</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1024174</v>
+        <v>607827</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -2366,10 +2456,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2729</v>
+        <v>1395</v>
       </c>
       <c r="N27" s="7">
-        <v>1719866</v>
+        <v>975352</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -2383,55 +2473,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2860</v>
+        <v>387</v>
       </c>
       <c r="D28" s="7">
-        <v>2826164</v>
+        <v>237545</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7">
-        <v>4483</v>
+        <v>731</v>
       </c>
       <c r="I28" s="7">
-        <v>3240817</v>
+        <v>356971</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
-        <v>7343</v>
+        <v>1118</v>
       </c>
       <c r="N28" s="7">
-        <v>6066981</v>
+        <v>594516</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,49 +2530,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D29" s="7">
-        <v>43207</v>
+        <v>2684</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H29" s="7">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>41546</v>
+        <v>3212</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>184</v>
+        <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M29" s="7">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="N29" s="7">
-        <v>84753</v>
+        <v>5896</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,49 +2581,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>465</v>
+        <v>65</v>
       </c>
       <c r="D30" s="7">
-        <v>507888</v>
+        <v>41224</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H30" s="7">
-        <v>814</v>
+        <v>141</v>
       </c>
       <c r="I30" s="7">
-        <v>542288</v>
+        <v>64056</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
-        <v>1279</v>
+        <v>206</v>
       </c>
       <c r="N30" s="7">
-        <v>1050176</v>
+        <v>105280</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2542,63 +2632,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>456</v>
+      </c>
+      <c r="D31" s="7">
+        <v>281453</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>878</v>
+      </c>
+      <c r="I31" s="7">
+        <v>424239</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1334</v>
+      </c>
+      <c r="N31" s="7">
+        <v>705692</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2860</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2717431</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4483</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3089176</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7343</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5806606</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>41</v>
+      </c>
+      <c r="D33" s="7">
+        <v>42307</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H33" s="7">
+        <v>55</v>
+      </c>
+      <c r="I33" s="7">
+        <v>37596</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" s="7">
+        <v>96</v>
+      </c>
+      <c r="N33" s="7">
+        <v>79903</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>465</v>
+      </c>
+      <c r="D34" s="7">
+        <v>692530</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="7">
+        <v>814</v>
+      </c>
+      <c r="I34" s="7">
+        <v>575527</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1279</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1268057</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3366</v>
       </c>
-      <c r="D31" s="7">
-        <v>3377258</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3452268</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5352</v>
       </c>
-      <c r="I31" s="7">
-        <v>3824651</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3702299</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8718</v>
       </c>
-      <c r="N31" s="7">
-        <v>7201910</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>195</v>
+      <c r="N35" s="7">
+        <v>7154566</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
